--- a/users.xlsx
+++ b/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>school_name</t>
   </si>
@@ -62,27 +62,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>शिर्वे</t>
-  </si>
-  <si>
-    <t>आश्रमिक</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>विनासवळत</t>
-  </si>
-  <si>
-    <t>डेस्कॉलर</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -463,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="17" width="10" customWidth="1"/>
@@ -522,377 +501,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>school_name</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>शिर्वे</t>
+  </si>
+  <si>
+    <t>आश्रमिक</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="17" width="10" customWidth="1"/>
@@ -501,6 +513,59 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>184</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
